--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Sliders" sheetId="1" r:id="rId1"/>
-    <sheet name="Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="Commands" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
   <si>
     <t>EVENT CUSTOM SLIDERS</t>
   </si>
@@ -23,73 +23,520 @@
     <t>Command</t>
   </si>
   <si>
-    <t>Command Type</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Perform an action on the slider release</t>
-  </si>
-  <si>
-    <t>Hide or show the corresponding slider</t>
-  </si>
-  <si>
-    <t>Commands</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
     <t>ASCII serial command or binary a2b_uu(serial command)</t>
   </si>
   <si>
-    <t>Modbus</t>
-  </si>
-  <si>
-    <t>write([slaveId,register,value],..,[slaveId,register,value]) \nwrite register: MODBUS function 6 (int) or function 16 (float)</t>
-  </si>
-  <si>
-    <t>wcoil(slaveId,register,&lt;bool&gt;) \nwrite coil: MODBUS function 5</t>
-  </si>
-  <si>
-    <t>wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;]) \nwrite coils: MODBUS function 15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>mwrite(slaveId,register,andMask,orMask) \nmask write register: MODBUS function 22</t>
-  </si>
-  <si>
-    <t>writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;]) \nwrite registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t>writeWord(slaveId,register,value) \nwrite 32bit float to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t>writeBCD(slaveId,register,value) or writeBCD(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;]) \nwrite BCD encoded int register: MODBUS function 16 (BCD)</t>
-  </si>
-  <si>
     <t>writes values to the registers in slaves specified by the given id</t>
   </si>
   <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>nsert Data address : value, ex. 4701:1000 and sv is 100. always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
-  </si>
-  <si>
-    <t>bn:Offset added as offset to the slider value</t>
-  </si>
-  <si>
-    <t>bn:Factor multiplicator of the slider value</t>
-  </si>
-  <si>
-    <t>tn: Command depends on the action type ("{}" is replaced by value*factor + offset)</t>
+    <t>COMMANDS</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Call Program</t>
+  </si>
+  <si>
+    <t>A program/script path (absolute or relative)</t>
+  </si>
+  <si>
+    <t>start and external program</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>variable holding the last value read via MODBUS</t>
+  </si>
+  <si>
+    <t>sleep(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t>sleep: add a delay of &lt;float&gt; seconds</t>
+  </si>
+  <si>
+    <t>button(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t>sets calling button to u\0093pressedu\0094 if argument is 1 or True</t>
+  </si>
+  <si>
+    <t>write([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t>write register: MODBUS function 6 (int) or function 16 (float)</t>
+  </si>
+  <si>
+    <t>wcoil(slaveId,register,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t>write coil: MODBUS function 5</t>
+  </si>
+  <si>
+    <t>wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
+  </si>
+  <si>
+    <t>write coils: MODBUS function 15</t>
+  </si>
+  <si>
+    <t>mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
+  </si>
+  <si>
+    <t>mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
+  </si>
+  <si>
+    <t>writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
+  </si>
+  <si>
+    <t>write registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t>writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit BCD encoded value v to regiseter r of slave s </t>
+  </si>
+  <si>
+    <t>writeWord(slaveId,register,value)</t>
+  </si>
+  <si>
+    <t>write 32bit float to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>set(c,b[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET Binary Output: switches channel c off (b=0) and on (b=1)</t>
+  </si>
+  <si>
+    <t>toggle(c[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET Binary Output: toggles channel c</t>
+  </si>
+  <si>
+    <t>pulse(c,t[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET Binary Output: sets the output of channel c to on for time t in milliseconds</t>
+  </si>
+  <si>
+    <t>out(c,v[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET Voltage Output: sets voltage output of channel c to v (float)</t>
+  </si>
+  <si>
+    <t>accel(c,v[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET DCMotor: sets acceleration of channel c to v (float)</t>
+  </si>
+  <si>
+    <t>vel(c,v[,sn])</t>
+  </si>
+  <si>
+    <t>PHIDGET DCMotor: sets target velocity of channel c to v (float)</t>
+  </si>
+  <si>
+    <t>on(c[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE Relay Output: turn channel c of the relay module on</t>
+  </si>
+  <si>
+    <t>off(c[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
+  </si>
+  <si>
+    <t>flip(c[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE Relay Output: toggle the state of channel c</t>
+  </si>
+  <si>
+    <t>pip(c,delay,duration[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
+  </si>
+  <si>
+    <t>slider(c,v)</t>
+  </si>
+  <si>
+    <t>move slider c to value v</t>
+  </si>
+  <si>
+    <t>button(i,c,b[,sn])</t>
+  </si>
+  <si>
+    <t>switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t>Hottop Heater</t>
+  </si>
+  <si>
+    <t>sets heater to value</t>
+  </si>
+  <si>
+    <t>Hottop Fan</t>
+  </si>
+  <si>
+    <t>sets fan to value</t>
+  </si>
+  <si>
+    <t>Hottop Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
+  </si>
+  <si>
+    <t>with n={0 ,1},h={0,..100},f={0,..10}</t>
+  </si>
+  <si>
+    <t>write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET PWM Output: &lt;value&gt; in [0-100], &lt;sn&gt; : has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;], an optional serial number of the hub, optionally specifying the port number the module is connected to</t>
+  </si>
+  <si>
+    <t>toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t>pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t>outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET HUB PWM Output: &lt;value&gt; in [0-100], &lt;sn&gt; : has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;], an optional serial number of the hub, optionally specifying the port number the module is connected to</t>
+  </si>
+  <si>
+    <t>togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t>pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t>enabled(c,b[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE PWM Output: PWM running state</t>
+  </si>
+  <si>
+    <t>freq(c,f[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
+  </si>
+  <si>
+    <t>duty(c,d[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
+  </si>
+  <si>
+    <t>move(c,d,t[,sn])</t>
+  </si>
+  <si>
+    <t>YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
+  </si>
+  <si>
+    <t>VOUT</t>
+  </si>
+  <si>
+    <t>out(&lt;n&gt;,&lt;v&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t>for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V) on a Phidget, &lt;sn&gt; : has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;], an optional serial number of the hub</t>
+  </si>
+  <si>
+    <t>vout(c,v[,sn])</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0] and the optional sn either the modules serial number or its name</t>
+  </si>
+  <si>
+    <t>cout(c[,sn])</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0] and the optional sn either the modules serial number or its name</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>getDBint(&lt;dbnumber&gt;,&lt;start&gt;)</t>
+  </si>
+  <si>
+    <t>read int from S7 DB</t>
+  </si>
+  <si>
+    <t>getDBfloat(&lt;dbnumber&gt;,&lt;start&gt;)</t>
+  </si>
+  <si>
+    <t>read fl oat from S7 DB</t>
+  </si>
+  <si>
+    <t>setDBint(&lt;dbnumber&gt;,&lt;start&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t>write int to S7 DB</t>
+  </si>
+  <si>
+    <t>setDBfloat(&lt;dbnumber&gt;,&lt;start&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t>write float to S7 DB</t>
+  </si>
+  <si>
+    <t>Aillio R1 Heater</t>
+  </si>
+  <si>
+    <t>Aillio R1 Fan</t>
+  </si>
+  <si>
+    <t>Aillio R1 Drum</t>
+  </si>
+  <si>
+    <t>sets drum speed to value</t>
+  </si>
+  <si>
+    <t>alarms(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t>enables/disables alarms</t>
+  </si>
+  <si>
+    <t>autoCHARGE(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t>enables/disables autoCHARGE</t>
+  </si>
+  <si>
+    <t>autoDROP(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t>enables/disables autoDROP</t>
+  </si>
+  <si>
+    <t>tare(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t>tare channel &lt;int&gt; with 1 =&gt; ET, 2 =&gt; BT, 3 =&gt; E1c1, 4: E1c2,..</t>
+  </si>
+  <si>
+    <t>PIDon</t>
+  </si>
+  <si>
+    <t>turns PID on</t>
+  </si>
+  <si>
+    <t>PIDoff</t>
+  </si>
+  <si>
+    <t>turns PID off</t>
+  </si>
+  <si>
+    <t>PIDtoggle</t>
+  </si>
+  <si>
+    <t>toggles the PID state</t>
+  </si>
+  <si>
+    <t>pidmode(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t>sets PID mode to 0: manual, 1: RS, 2: background follow</t>
+  </si>
+  <si>
+    <t>playbackmode(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t>sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>pulse(ch,min,max[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: sets the min/max pulse width in microseconds. sn : has the form &lt;hub_serial&gt;[:&lt;hub_port&gt;], an optional serial number of the hub, optionally specifying the port number the module is connected to</t>
+  </si>
+  <si>
+    <t>pos(ch,min,max[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: sets the min/max position</t>
+  </si>
+  <si>
+    <t>engaged(ch,b[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: engage (b=1) or disengage (b = 0)</t>
+  </si>
+  <si>
+    <t>ramp(ch,b[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: activates or deactivates the speed ramping state</t>
+  </si>
+  <si>
+    <t>volt(ch,v[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: set the voltage to one of 5, 6 or 7.4 in Volt</t>
+  </si>
+  <si>
+    <t>accel(ch,a[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: set the acceleration</t>
+  </si>
+  <si>
+    <t>veloc(ch,v[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: set the velocity</t>
+  </si>
+  <si>
+    <t>set(ch,pos[,sn])</t>
+  </si>
+  <si>
+    <t>for PHIDGET RC modules: set the target position</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE RC modules: with c:int the channel, b a bool (eg. enabled(0,1) or enabled(0,True)), sn the optional modules serial number or logical name</t>
+  </si>
+  <si>
+    <t>move(c,p[,t][,sn])</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE RC modules: with c:int the channel, p:int the target position, the optional t the duration in ms, sn the optional modules serial number or logical name</t>
+  </si>
+  <si>
+    <t>neutral(c,n[,sn])</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE RC modules: with n an int [0..65000] in us, sn the modules serial number or logical name</t>
+  </si>
+  <si>
+    <t>range(c,r[,sn])</t>
+  </si>
+  <si>
+    <t>for YOCTOPUCE RC modules: with r an int in %, sn the modules serial number or logical name</t>
+  </si>
+  <si>
+    <t>Fuji Command</t>
+  </si>
+  <si>
+    <t>Serial Command</t>
+  </si>
+  <si>
+    <t>Modbus Command</t>
+  </si>
+  <si>
+    <t>DTA Command</t>
+  </si>
+  <si>
+    <t>Artisan Command</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
+  </si>
+  <si>
+    <t>Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
+  </si>
+  <si>
+    <t>Hide or show the corresponding slider.</t>
+  </si>
+  <si>
+    <t>Perform an action on the slider release.</t>
+  </si>
+  <si>
+    <t>Offset to be added to the Slider value (after scaling by Factor).</t>
+  </si>
+  <si>
+    <t>Scale factor, Slider value is multplied by this value.</t>
+  </si>
+  <si>
+    <t>Sets the minimum value for the range of the slider.</t>
+  </si>
+  <si>
+    <t>Sets the maximum value for the range of the slider.</t>
+  </si>
+  <si>
+    <t>When ticked the slider moves in steps of 10.</t>
+  </si>
+  <si>
+    <t>Should be ticked when the slider's value is a temperature to allow Artisan to properly scale the value between Centigrade and Fahrenheit.</t>
+  </si>
+  <si>
+    <t>Optional text used in annotations to the the units used for the slider value.</t>
+  </si>
+  <si>
+    <t>tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset).</t>
+  </si>
+  <si>
+    <t>Command to perform, depends on the Action type. ('{}' is replaced by the slider value*Factor + Offset)</t>
   </si>
 </sst>
 </file>
@@ -431,16 +878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,26 +897,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -479,106 +990,662 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="5955"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="5955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sliders" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>write 32bit float to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
-    <t>IO</t>
-  </si>
-  <si>
     <t>set(c,b[,sn])</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
   </si>
   <si>
-    <t>PWM</t>
-  </si>
-  <si>
     <t>out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
   </si>
   <si>
-    <t>VOUT</t>
-  </si>
-  <si>
     <t>out(&lt;n&gt;,&lt;v&gt;[,&lt;sn&gt;])</t>
   </si>
   <si>
@@ -296,9 +287,6 @@
     <t>for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0] and the optional sn either the modules serial number or its name</t>
   </si>
   <si>
-    <t>S7</t>
-  </si>
-  <si>
     <t>getDBint(&lt;dbnumber&gt;,&lt;start&gt;)</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
   </si>
   <si>
-    <t>RC</t>
-  </si>
-  <si>
     <t>pulse(ch,min,max[,sn])</t>
   </si>
   <si>
@@ -537,6 +522,21 @@
   </si>
   <si>
     <t>Command to perform, depends on the Action type. ('{}' is replaced by the slider value*Factor + Offset)</t>
+  </si>
+  <si>
+    <t>PWM Command</t>
+  </si>
+  <si>
+    <t>VOUT Command</t>
+  </si>
+  <si>
+    <t>IO Command</t>
+  </si>
+  <si>
+    <t>S7 Command</t>
+  </si>
+  <si>
+    <t>RC Command</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +897,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,63 +924,63 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,147 +1149,147 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,101 +1302,101 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
         <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
         <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
         <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
         <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
         <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
         <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,88 +1409,88 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,149 +1503,149 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="187">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t xml:space="preserve">for YOCTOPUCE RC modules: with r an int in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebSocket Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send(&lt;json&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If {} substitutions are used, json brackets need to be duplicated to escape them like in send({{ “value”: {}}})</t>
   </si>
 </sst>
 </file>
@@ -681,13 +690,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="52:59 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="86:87 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,13 +808,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="52:59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="86:87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1516,6 +1525,25 @@
       </c>
       <c r="C85" s="0" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="186">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writes values to the registers in slaves specified by the given id</t>
   </si>
   <si>
     <t xml:space="preserve">DTA Command</t>
@@ -690,13 +687,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="86:87 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,13 +805,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="86:87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -950,367 +947,367 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="0" t="s">
         <v>65</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="B35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="B39" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="2" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>134</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1315,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,170 +1323,170 @@
         <v>136</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="B63" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="B73" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="B74" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>176</v>
@@ -1497,55 +1494,48 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>183</v>
+      </c>
       <c r="B85" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="B86" s="0" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="0" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -131,7 +131,13 @@
     <t xml:space="preserve">button(&lt;bool&gt;)</t>
   </si>
   <si>
-    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
+    <t xml:space="preserve">sets calling button to “pressed” if argument evaluates to 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -579,6 +585,12 @@
   </si>
   <si>
     <t xml:space="preserve">If {} substitutions are used, json brackets need to be duplicated to escape them like in send({{ “value”: {}}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read(&lt;json&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the `&lt;json&gt;` text respects the JSON format it is send to the connected WebSocket server and the response is bound to the variable `_`</t>
   </si>
 </sst>
 </file>
@@ -690,7 +702,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -805,13 +817,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -888,7 +900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>37</v>
       </c>
@@ -913,17 +925,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>46</v>
       </c>
@@ -947,30 +959,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -985,22 +997,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1011,11 +1023,11 @@
       <c r="B24" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>70</v>
       </c>
@@ -1088,17 +1100,17 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>91</v>
       </c>
@@ -1116,24 +1128,24 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="0" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>98</v>
       </c>
@@ -1223,99 +1235,100 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="2" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="C60" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,42 +1336,42 @@
         <v>136</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="B64" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,171 +1384,202 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="B87" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="191">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -296,7 +296,13 @@
     <t xml:space="preserve">VOUT Command</t>
   </si>
   <si>
-    <t xml:space="preserve">out(&lt;n&gt;,&lt;v&gt;[,&lt;sn&gt;])</t>
+    <t xml:space="preserve">range(c,r[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 fo r5V and r=10 for 10V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(n,v[,sn])</t>
   </si>
   <si>
     <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
@@ -570,9 +576,6 @@
   </si>
   <si>
     <t xml:space="preserve">for YOCTOPUCE RC modules: with n an int [0..65000] in us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range(c,r[,sn])</t>
   </si>
   <si>
     <t xml:space="preserve">for YOCTOPUCE RC modules: with r an int in %</t>
@@ -699,10 +702,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B35:B36 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -817,13 +820,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1107,7 +1110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>90</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>93</v>
       </c>
@@ -1136,24 +1139,24 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="0" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>100</v>
       </c>
@@ -1243,51 +1246,50 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>126</v>
       </c>
@@ -1331,42 +1333,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>61</v>
+      <c r="C61" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="0" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>143</v>
       </c>
@@ -1384,18 +1387,18 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,17 +1450,17 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="B75" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
         <v>164</v>
       </c>
@@ -1515,15 +1518,15 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>180</v>
@@ -1545,39 +1548,47 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B87" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="B88" s="0" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="C88" s="0" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="C90" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
         <v>189</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -498,6 +498,60 @@
   </si>
   <si>
     <t xml:space="preserve">sets PID mode to 0: manual, 1: RS, 2: background follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-i-d(&lt;p&gt;,&lt;i&gt;,&lt;d&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSV(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidRS(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates the PID Ramp-Soak pattern number &lt;n&gt; (1-based!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSource(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selects the PID input source with &lt;n&gt; 0: BT, 1: ET (Software PID); &lt;n&gt; in {0,..,3} (Arduino PID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup(&lt;msg&gt;[,&lt;int&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows popup with message &lt;msg&gt; which optionally automatically closes after &lt;int&gt; seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message(&lt;msg&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets canvas color to the RGB-hex &lt;color&gt; like #27f1d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resetCanvasColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resets canvas color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(&lt;name&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
   </si>
   <si>
     <t xml:space="preserve">playbackmode(&lt;int&gt;)</t>
@@ -702,10 +756,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B35:B36 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B74:C82 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -820,13 +874,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1441,7 +1495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
         <v>159</v>
       </c>
@@ -1449,7 +1503,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
         <v>161</v>
       </c>
@@ -1457,138 +1511,210 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="0" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>181</v>
+      </c>
       <c r="B85" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="C96" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>190</v>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="211">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">palette(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates palette &lt;int&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">playbackmode(&lt;int&gt;)</t>
@@ -756,10 +762,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B74:C82 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B83:C83 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -874,13 +880,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74:C82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1567,7 +1573,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>177</v>
       </c>
@@ -1584,17 +1590,17 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="B85" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>184</v>
       </c>
@@ -1652,15 +1658,15 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>200</v>
@@ -1676,45 +1682,53 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>208</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="215">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t xml:space="preserve">opens the Roast Properties dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadBackground(&lt;filepath&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loads the .alog profile at the given filepath as background profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clearBackground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clears the current background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -762,10 +774,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B83:C83 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B86:C87 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -880,13 +892,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86:C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1597,26 +1609,26 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
         <v>188</v>
       </c>
@@ -1666,23 +1678,23 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>204</v>
@@ -1690,16 +1702,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
         <v>206</v>
       </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
@@ -1707,28 +1716,47 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="B100" s="0" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>210</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="217">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
-    <t xml:space="preserve">pidRS(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activates the PID Ramp-Soak pattern number &lt;n&gt; (1-based!)</t>
+    <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates the PID Ramp-Soak pattern number &lt;rs&gt; (1-based!) or the one labeled &lt;rs&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">pidSource(&lt;int&gt;)</t>
@@ -554,10 +554,10 @@
     <t xml:space="preserve">activates button &lt;name&gt; from { START, CHARGE, DRY, FCs, FCe, SCs, SCe, DROP, COOL, OFF } </t>
   </si>
   <si>
-    <t xml:space="preserve">palette(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activates palette &lt;int&gt;</t>
+    <t xml:space="preserve">palette(&lt;p&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates palette &lt;p&gt; with &lt;p&gt; either a number 0-9 or a palette label</t>
   </si>
   <si>
     <t xml:space="preserve">playbackmode(&lt;int&gt;)</t>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t xml:space="preserve">clears the current background profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarmset(&lt;as&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activates the alarmset with the given number or label</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -774,10 +780,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B86:C87 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B83:C83 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -892,13 +898,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86:C87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1625,18 +1631,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>190</v>
       </c>
@@ -1694,15 +1700,15 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>206</v>
@@ -1718,45 +1724,53 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>214</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="219">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -506,7 +506,13 @@
     <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
   </si>
   <si>
-    <t xml:space="preserve">pidSV(&lt;float&gt;)</t>
+    <t xml:space="preserve">adjustSV(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases or decreases the current target SV value by &lt;int&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSV(&lt;int&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
@@ -780,10 +786,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B83:C83 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -898,13 +904,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1599,7 +1605,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>179</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>183</v>
       </c>
@@ -1639,18 +1645,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>192</v>
       </c>
@@ -1708,15 +1714,15 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>208</v>
@@ -1732,45 +1738,53 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>216</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="223">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -530,6 +530,12 @@
     <t xml:space="preserve">selects the PID input source with &lt;n&gt; 0: BT, 1: ET (Software PID); &lt;n&gt; in {0,..,3} (Arduino PID)</t>
   </si>
   <si>
+    <t xml:space="preserve">pidLookahead(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID lookahead</t>
+  </si>
+  <si>
     <t xml:space="preserve">popup(&lt;msg&gt;[,&lt;int&gt;])</t>
   </si>
   <si>
@@ -594,6 +600,12 @@
   </si>
   <si>
     <t xml:space="preserve">activates the alarmset with the given number or label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moveBackground(&lt;direction&gt;,&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -786,10 +798,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B79:C79 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -904,13 +916,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79:C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1613,7 +1625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>181</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
         <v>185</v>
       </c>
@@ -1653,26 +1665,26 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>196</v>
       </c>
@@ -1722,23 +1734,23 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>212</v>
@@ -1746,16 +1758,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
         <v>214</v>
       </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>215</v>
       </c>
@@ -1763,28 +1772,47 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="B104" s="0" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>218</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="226">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset).\n</t>
+    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -131,274 +131,283 @@
     <t xml:space="preserve">button(&lt;bool&gt;)</t>
   </si>
   <si>
+    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write register: MODBUS function 6 (int) or function 16 (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coil: MODBUS function 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coils: MODBUS function 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit BCD encoded value v to register r of slave s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeWord(slaveId,register,value) or writeWord([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A program/script path (absolute or relative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start and external program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets heater to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets fan to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuji Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq(c,f[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty(c,d[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move(c,d,t[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOUT Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range(c,r[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 fo r5V and r=10 for 10V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(n,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vout(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cout(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET Binary Output: switches channel c off (b=0) and on (b=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET Binary Output: toggles channel c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse(c,t[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET Binary Output: sets the output of channel c to on for time t in milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET Voltage Output: sets voltage output of channel c to v (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accel(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET DCMotor: sets acceleration of channel c to v (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vel(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET DCMotor: sets target velocity of channel c to v (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: toggle the state of channel c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pip(c,delay,duration[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slider(c,v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move slider c to value v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(i,c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7 Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable holding the last value read via S7</t>
+  </si>
+  <si>
     <t xml:space="preserve">sets calling button to “pressed” if argument evaluates to 1 or True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write register: MODBUS function 6 (int) or function 16 (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coil: MODBUS function 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coils: MODBUS function 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit BCD encoded value v to regiseter r of slave s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeWord(slaveId,register,value)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTA Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A program/script path (absolute or relative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start and external program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets heater to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets fan to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuji Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq(c,f[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty(c,d[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move(c,d,t[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOUT Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range(c,r[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 fo r5V and r=10 for 10V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(n,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vout(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cout(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET Binary Output: switches channel c off (b=0) and on (b=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET Binary Output: toggles channel c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulse(c,t[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET Binary Output: sets the output of channel c to on for time t in milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET Voltage Output: sets voltage output of channel c to v (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accel(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET DCMotor: sets acceleration of channel c to v (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vel(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET DCMotor: sets target velocity of channel c to v (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">off(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: toggle the state of channel c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pip(c,delay,duration[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slider(c,v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move slider c to value v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button(i,c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7 Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable holding the last value read via S7</t>
   </si>
   <si>
     <t xml:space="preserve">getDBbool(&lt;dbnumber&gt;,&lt;start&gt;,&lt;index&gt;)</t>
@@ -770,12 +779,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -798,10 +807,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B79:C79 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -916,15 +925,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79:C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
   </cols>
   <sheetData>
@@ -933,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
@@ -972,7 +981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>30</v>
       </c>
@@ -983,7 +992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>33</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>35</v>
       </c>
@@ -1007,15 +1016,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>41</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>45</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>48</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>50</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
@@ -1066,30 +1075,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -1104,22 +1113,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1130,11 +1139,11 @@
       <c r="B25" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>72</v>
       </c>
@@ -1206,18 +1215,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>93</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
         <v>95</v>
       </c>
@@ -1243,24 +1252,24 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="0" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>102</v>
       </c>
@@ -1350,105 +1359,105 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="0" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+      <c r="B56" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>127</v>
+      <c r="C56" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>61</v>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>63</v>
@@ -1456,17 +1465,14 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -1474,217 +1480,217 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="B66" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
         <v>195</v>
       </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>196</v>
       </c>
@@ -1693,126 +1699,137 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>198</v>
+      </c>
       <c r="B93" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="B105" s="0" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>222</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background or BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -708,7 +711,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -730,6 +733,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -774,8 +783,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,7 +823,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -925,13 +938,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -947,8 +960,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -964,503 +977,500 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="B37" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="C63" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1478,7 @@
         <v>142</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,298 +1486,298 @@
         <v>143</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="0" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="0" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="B94" s="0" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>215</v>
@@ -1775,61 +1785,69 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="C106" s="0" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="C108" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
         <v>225</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background or BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t xml:space="preserve">PHIDGET DCMotor: sets target velocity of channel c to v (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET DCMotor: sets current limit of channel c to v (float)</t>
   </si>
   <si>
     <t xml:space="preserve">on(c[,sn])</t>
@@ -711,7 +717,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -733,12 +739,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -783,12 +783,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,7 +819,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -938,13 +934,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1035,7 +1031,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1105,7 +1101,7 @@
       <c r="A21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -1143,7 +1139,7 @@
       <c r="A25" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -1335,8 +1331,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -1385,130 +1381,130 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="0" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+      <c r="B58" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="0" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>64</v>
+      <c r="C64" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
         <v>149</v>
       </c>
@@ -1526,18 +1522,18 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1568,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
         <v>163</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
         <v>187</v>
       </c>
@@ -1684,7 +1680,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>191</v>
       </c>
@@ -1716,18 +1712,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="0" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>202</v>
       </c>
@@ -1785,15 +1781,15 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>218</v>
@@ -1809,45 +1805,53 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>226</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables keyboard mode</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -809,17 +815,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="95:95 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -921,7 +927,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -930,17 +936,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="95:95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1720,18 +1726,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>204</v>
       </c>
@@ -1789,15 +1795,15 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>220</v>
@@ -1813,51 +1819,59 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>228</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -630,6 +630,30 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -822,10 +846,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="95:95 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -940,13 +964,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="95:95"/>
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1734,42 +1758,42 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>212</v>
       </c>
@@ -1803,69 +1827,101 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>226</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>230</v>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="241">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
@@ -846,10 +852,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B85:C85 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -964,13 +970,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1702,7 +1708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>189</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>193</v>
       </c>
@@ -1790,18 +1796,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
         <v>214</v>
       </c>
@@ -1859,15 +1865,15 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>230</v>
@@ -1883,45 +1889,53 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>238</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
   </si>
   <si>
     <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
@@ -855,7 +861,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B85:C85 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -970,13 +976,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1716,7 +1722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>191</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1804,18 +1810,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>216</v>
       </c>
@@ -1873,15 +1879,15 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>232</v>
@@ -1897,45 +1903,53 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>240</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
     <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -858,10 +864,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B85:C85 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B20:C20 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -976,13 +982,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85:C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1131,7 +1137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>55</v>
       </c>
@@ -1139,30 +1145,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -1177,22 +1183,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1203,11 +1209,11 @@
       <c r="B27" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>75</v>
       </c>
@@ -1279,18 +1285,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>96</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>98</v>
       </c>
@@ -1316,24 +1322,24 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="0" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>105</v>
       </c>
@@ -1373,16 +1379,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1431,51 +1437,50 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+      <c r="B59" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
@@ -1519,17 +1524,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>64</v>
+      <c r="C65" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>66</v>
@@ -1537,24 +1543,24 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
         <v>151</v>
       </c>
@@ -1572,18 +1578,18 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1624,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
         <v>165</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>193</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>197</v>
       </c>
@@ -1818,18 +1824,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
         <v>218</v>
       </c>
@@ -1887,15 +1893,15 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>234</v>
@@ -1911,45 +1917,53 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
         <v>238</v>
       </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>242</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keepON(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables the Keep ON flag</t>
   </si>
   <si>
     <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
@@ -864,10 +870,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B20:C20 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B99:C99 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -982,13 +988,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20:C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99:C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1832,18 +1838,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
         <v>220</v>
       </c>
@@ -1901,15 +1907,15 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>236</v>
@@ -1925,45 +1931,53 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>244</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="259">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(slaveId,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -870,10 +906,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B99:C99 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C13:C18 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -988,13 +1024,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99:C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1084,8 +1120,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1109,165 +1145,165 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>87</v>
       </c>
@@ -1299,53 +1335,47 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="B43" s="0" t="s">
         <v>105</v>
       </c>
@@ -1353,48 +1383,54 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="B44" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1441,8 +1477,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1451,202 +1487,202 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>34</v>
+      <c r="A72" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>157</v>
+      <c r="A73" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>159</v>
+      <c r="A74" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>162</v>
+      </c>
       <c r="B75" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
         <v>169</v>
       </c>
@@ -1654,7 +1690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
         <v>171</v>
       </c>
@@ -1662,7 +1698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
         <v>173</v>
       </c>
@@ -1670,7 +1706,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
         <v>175</v>
       </c>
@@ -1678,7 +1714,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>177</v>
       </c>
@@ -1750,7 +1786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1758,7 +1794,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>197</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
@@ -1806,7 +1842,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
         <v>209</v>
       </c>
@@ -1846,58 +1882,58 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
         <v>232</v>
       </c>
@@ -1915,69 +1951,117 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C123" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>246</v>
+      <c r="C124" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="261">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerReset([sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE resets the power counter of the Yocto-Watt module</t>
   </si>
   <si>
     <t xml:space="preserve">slider(c,v)</t>
@@ -906,10 +912,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C13:C18 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B60:C60 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1024,13 +1030,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1517,7 +1523,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>139</v>
       </c>
@@ -1535,51 +1541,50 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>148</v>
       </c>
@@ -1623,42 +1628,43 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>78</v>
+      <c r="C72" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
         <v>165</v>
       </c>
@@ -1676,18 +1682,18 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1728,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>179</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>211</v>
       </c>
@@ -1930,18 +1936,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
         <v>234</v>
       </c>
@@ -1999,15 +2005,15 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>250</v>
@@ -2023,45 +2029,53 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="0" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>258</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -912,10 +918,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B60:C60 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B64:C64 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1030,13 +1036,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60:C60"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1556,44 +1562,43 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+      <c r="B67" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
@@ -1637,42 +1642,43 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>78</v>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
         <v>167</v>
       </c>
@@ -1690,18 +1696,18 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,7 +1742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>181</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
         <v>209</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
         <v>213</v>
       </c>
@@ -1944,18 +1950,18 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
         <v>236</v>
       </c>
@@ -2013,15 +2019,15 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>252</v>
@@ -2037,45 +2043,53 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>260</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -819,7 +819,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -841,6 +841,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -885,7 +893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -894,7 +902,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,10 +934,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B64:C64 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B32:B127 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1038,11 +1054,11 @@
   </sheetPr>
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64:C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1109,7 +1125,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1117,7 +1133,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1125,7 +1141,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1133,7 +1149,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1141,7 +1157,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1149,7 +1165,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1157,7 +1173,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -1165,7 +1181,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -1173,15 +1189,15 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -1189,7 +1205,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -1197,7 +1213,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -1208,7 +1224,7 @@
       <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -1216,7 +1232,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -1224,15 +1240,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -1240,15 +1256,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -1259,7 +1275,7 @@
       <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -1293,102 +1309,102 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -1399,7 +1415,7 @@
       <c r="A44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -1407,82 +1423,82 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -1490,39 +1506,39 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -1530,31 +1546,31 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -1562,7 +1578,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -1573,7 +1589,7 @@
       <c r="A65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1582,7 +1598,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1591,7 +1607,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -1599,7 +1615,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1608,7 +1624,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1617,7 +1633,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1626,7 +1642,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1635,7 +1651,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1644,106 +1660,109 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>164</v>
       </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -1751,7 +1770,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -1759,7 +1778,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -1767,7 +1786,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -1775,7 +1794,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -1783,7 +1802,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -1791,7 +1810,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -1799,7 +1818,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -1807,7 +1826,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -1815,7 +1834,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="0" t="s">
@@ -1823,7 +1842,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="0" t="s">
@@ -1831,7 +1850,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -1839,7 +1858,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -1847,7 +1866,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C98" s="0" t="s">
@@ -1855,23 +1874,23 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -1879,7 +1898,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -1887,7 +1906,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C103" s="0" t="s">
@@ -1895,7 +1914,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
@@ -1903,7 +1922,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
@@ -1911,7 +1930,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C106" s="0" t="s">
@@ -1919,7 +1938,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
@@ -1927,7 +1946,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -1935,7 +1954,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -1943,7 +1962,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -1951,106 +1970,106 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -2061,7 +2080,7 @@
       <c r="A124" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C124" s="0" t="s">
@@ -2069,7 +2088,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -2077,7 +2096,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C126" s="0" t="s">
@@ -2085,7 +2104,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C127" s="0" t="s">

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -934,10 +934,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B32:B127 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1054,11 +1054,11 @@
   </sheetPr>
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:B127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1117,7 +1117,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="271">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -455,13 +455,37 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the state of the button</t>
   </si>
   <si>
     <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -934,10 +958,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B65:C65 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1052,13 +1076,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1571,86 +1595,82 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
         <v>158</v>
       </c>
@@ -1668,97 +1688,101 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="0" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>174</v>
+      </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,41 +2002,41 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="B112" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
         <v>244</v>
       </c>
@@ -2046,42 +2070,39 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="B124" s="2" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>260</v>
@@ -2089,26 +2110,61 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="273">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
   </si>
   <si>
     <t xml:space="preserve">flip(c[,sn])</t>
@@ -958,10 +964,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B65:C65 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B58:C58 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1076,13 +1082,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65:C65"/>
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1597,19 +1603,19 @@
       <c r="B63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
         <v>149</v>
       </c>
@@ -1619,18 +1625,18 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,44 +1648,43 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
@@ -1724,44 +1729,45 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="0" t="s">
-        <v>78</v>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="0" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
         <v>177</v>
       </c>
@@ -1779,18 +1785,18 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,17 +2040,17 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="B116" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
         <v>246</v>
       </c>
@@ -2102,15 +2108,15 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>262</v>
@@ -2126,45 +2132,53 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>270</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -964,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B58:C58 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B94:C94 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1082,13 +1088,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58:C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94:C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -2048,17 +2054,17 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B117" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
         <v>248</v>
       </c>
@@ -2116,15 +2122,15 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>264</v>
@@ -2140,45 +2146,53 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>272</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sliders" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale factor, Slider value is multplied by this value.</t>
+    <t xml:space="preserve">Scale factor, Slider value is multiplied by this value.</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
+    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">range(c,r[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 fo r5V and r=10 for 10V)</t>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
   </si>
   <si>
     <t xml:space="preserve">out(n,v[,sn])</t>
@@ -969,11 +969,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B94:C94 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1090,11 +1090,11 @@
   </sheetPr>
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94:C94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sliders" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value, and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -969,11 +969,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1090,13 +1090,13 @@
   </sheetPr>
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
   </cols>
   <sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value, and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, {WEIGHTin} and {TEMP} will be substituted by the current ET, BT, time, ET background, BT background value, batch size (in g), event value in F converted to current temperature unit in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -934,10 +934,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -948,6 +944,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -970,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A3 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1094,7 +1094,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -1217,7 +1217,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -1260,7 +1260,7 @@
       <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -1268,7 +1268,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -1311,7 +1311,7 @@
       <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -1349,7 +1349,7 @@
       <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -1360,7 +1360,7 @@
       <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1400,7 +1400,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -1416,7 +1416,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -1451,7 +1451,7 @@
       <c r="A44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -1494,7 +1494,7 @@
       <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1502,7 +1502,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -1558,7 +1558,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -1614,15 +1614,15 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -1662,28 +1662,28 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -1691,55 +1691,55 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       <c r="A79" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="0" t="s">
         <v>78</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="A80" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="0" t="s">
         <v>80</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="A81" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="0" t="s">
         <v>175</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="A82" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -1870,7 +1870,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="0" t="s">
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="0" t="s">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C98" s="0" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C99" s="0" t="s">
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C100" s="0" t="s">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C103" s="0" t="s">
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C106" s="0" t="s">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C113" s="0" t="s">
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C115" s="0" t="s">
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C116" s="0" t="s">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -2065,7 +2065,7 @@
       <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="0" t="s">
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C124" s="0" t="s">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C126" s="0" t="s">
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C127" s="0" t="s">
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C128" s="0" t="s">
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C129" s="0" t="s">
@@ -2164,7 +2164,7 @@
       <c r="A130" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C130" s="0" t="s">
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C131" s="0" t="s">
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="0" t="s">
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C133" s="0" t="s">

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, {WEIGHTin} and {TEMP} will be substituted by the current ET, BT, time, ET background, BT background value, batch size (in g), event value in F converted to current temperature unit in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value, and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -970,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A3 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="3:3 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1091,10 +1091,10 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sliders" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Commands" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sliders" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Commands" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="279">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -696,6 +696,48 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">activate/deactivate quantification per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setBatchSize(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set the batch size to the given value. If the value is negative, the batch size is taken from the background profile, if any is loaded</t>
   </si>
   <si>
     <t xml:space="preserve">openProperties</t>
@@ -929,24 +971,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,119 +1008,225 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="3:3 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B107:C108 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1084,1120 +1236,1136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="1" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="B71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="1" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="1" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="1" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
-      <c r="B77" s="1" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="1" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="0" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="0" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="0" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="s">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="s">
+    <row r="107" customFormat="false" ht="11.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="s">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="s">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="s">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C118" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="s">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="s">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="s">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>274</v>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="283">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -696,6 +696,85 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ramp(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback ramping per </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
@@ -897,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -927,6 +1006,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1240,9 +1332,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107:C108"/>
     </sheetView>
   </sheetViews>
@@ -2125,7 +2217,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="11.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
         <v>225</v>
       </c>
@@ -2230,25 +2322,25 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="1" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
         <v>256</v>
       </c>
@@ -2298,23 +2390,23 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>272</v>
@@ -2322,16 +2414,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="B132" s="2" t="s">
         <v>275</v>
       </c>
@@ -2341,26 +2430,45 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="B134" s="2" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>278</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="284">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -554,10 +554,33 @@
     <t xml:space="preserve">Artisan Command</t>
   </si>
   <si>
-    <t xml:space="preserve">alarms(&lt;bool&gt;)</t>
-  </si>
-  <si>
     <t xml:space="preserve">enables/disables alarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">enables/disables alarm number </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">autoCHARGE(&lt;bool&gt;)</t>
@@ -745,16 +768,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">toggles playback ramping per </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">event type </t>
+      <t xml:space="preserve">toggles playback ramping per event type </t>
     </r>
     <r>
       <rPr>
@@ -763,6 +777,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n </t>
     </r>
@@ -772,6 +787,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">from {1,2,3,4}</t>
     </r>
@@ -976,7 +992,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1006,19 +1022,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1214,7 +1217,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B107:C108 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B83:C83 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1332,10 +1335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107:C108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2018,395 +2021,393 @@
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="0"/>
+      <c r="C82" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C121" s="1" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="2" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>272</v>
@@ -2414,61 +2415,69 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B134" s="2" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
         <v>282</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -631,19 +631,19 @@
     <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
   </si>
   <si>
-    <t xml:space="preserve">adjustSV(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increases or decreases the current target SV value by &lt;int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pidSV(&lt;int&gt;)</t>
+    <t xml:space="preserve">adjustSV(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases or decreases the current target SV value by &lt;float&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSV(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
-    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+    <t xml:space="preserve">pidSVC(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV given in C</t>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B83:C83 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1337,8 +1337,8 @@
   </sheetPr>
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83:C83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2021,7 +2021,6 @@
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="0"/>
       <c r="C82" s="1" t="s">
         <v>177</v>
       </c>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="286">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
   </si>
   <si>
     <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
@@ -1217,7 +1223,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B35:C35 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,10 +1341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,17 +1701,17 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
@@ -1731,24 +1737,24 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
@@ -1864,7 +1870,7 @@
       <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1872,7 +1878,7 @@
       <c r="B65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1886,18 +1892,18 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,44 +1915,43 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
-      <c r="B71" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
       <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
@@ -1991,42 +1996,43 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
+      <c r="C79" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2051,18 +2057,18 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,17 +2352,17 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="1" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
@@ -2414,15 +2420,15 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>275</v>
@@ -2438,45 +2444,53 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="B135" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C135" s="1" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>283</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="293">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playbackdropmode(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets playback DROP mode to 0: off, 1: time, 2: BT, 3: ET</t>
   </si>
   <si>
     <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
@@ -1234,7 +1240,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="109:109 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1352,10 +1358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C137" activeCellId="0" sqref="C137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="109:109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2250,6 +2256,7 @@
       <c r="C109" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
@@ -2364,17 +2371,17 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C124" s="1" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
@@ -2432,15 +2439,15 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>277</v>
@@ -2456,26 +2463,26 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="B137" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>284</v>
@@ -2483,45 +2490,53 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="B139" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C139" s="1" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>290</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -182,7 +182,7 @@
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
   </si>
   <si>
-    <t xml:space="preserve">write register: MODBUS function 6 (int) or function 16 (float)</t>
+    <t xml:space="preserve">deprecated: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
   </si>
   <si>
     <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
@@ -1019,7 +1019,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1049,6 +1049,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1093,7 +1099,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1103,6 +1109,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,7 +1250,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="109:109 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="109:109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1506,7 +1516,7 @@
       <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1581,7 +1591,7 @@
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1619,7 +1629,7 @@
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="1" t="s">

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="295">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -805,6 +805,42 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">slider(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">show/hide slider per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
   </si>
   <si>
@@ -1019,7 +1055,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1049,12 +1085,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1112,7 +1142,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1250,7 +1280,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B112:C112 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,10 +1398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2389,17 +2419,17 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C125" s="1" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
@@ -2457,15 +2487,15 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>279</v>
@@ -2481,26 +2511,26 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="B138" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>286</v>
@@ -2508,45 +2538,53 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="B140" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C140" s="1" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>292</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="296">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -128,253 +128,420 @@
     <t xml:space="preserve">sleep(&lt;float&gt;)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sleep: add a delay of </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;float&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">button(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read(deviceID,register)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">reads register from device </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">deviceID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(deviceID,register,value) or write([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPRECATED: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoil(deviceID,register,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coil: MODBUS function 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoils(deviceID,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coils: MODBUS function 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mwrite(deviceID,register,andMask,orMask) or mwrite(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,andMask,orMask</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,value)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writem(deviceID,register,value) or writem(deviceID,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">writeBCD(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) or writeBCD([</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">],..,[</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit BCD encoded value to register of device with deviceID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeWord(deviceID,register,value) or writeWord([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeLong(deviceID,register,value) or writeLong([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeSingle(deviceID,register,value) or writeSingle([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A program/script path (absolute or relative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start and external program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets heater to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets fan to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuji Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq(c,f[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty(c,d[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move(c,d,t[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOUT Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range(c,r[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(n,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vout(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cout(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep: add a delay of &lt;float&gt; seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readSigned(slaveId,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readBCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32Signed(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32BCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readFloat(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deprecated: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coil: MODBUS function 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coils: MODBUS function 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit BCD encoded value v to register r of slave s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeWord(slaveId,register,value) or writeWord([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTA Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A program/script path (absolute or relative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start and external program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets heater to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets fan to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuji Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq(c,f[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty(c,d[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move(c,d,t[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOUT Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range(c,r[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(n,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vout(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cout(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
   </si>
   <si>
     <t xml:space="preserve">IO Command</t>
@@ -1055,7 +1222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1085,6 +1252,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1279,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B112:C112 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1400,14 +1574,15 @@
   </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112:C112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,154 +1980,154 @@
         <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,34 +2135,34 @@
         <v>34</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,60 +2178,60 @@
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
@@ -2065,7 +2240,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
@@ -2074,43 +2249,43 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,379 +2293,379 @@
         <v>34</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,23 +2673,23 @@
         <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,45 +2697,45 @@
         <v>110</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +2743,7 @@
         <v>34</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,15 +2751,15 @@
         <v>36</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="298">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -260,38 +260,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mwrite(deviceID,register,andMask,orMask) or mwrite(</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">deviceID,register,andMask,orMask</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,value)</t>
-    </r>
+    <t xml:space="preserve">mwrite(deviceID,register,andMask,orMask) or mwrite(deviceID,register,andMask,orMask,value)</t>
   </si>
   <si>
     <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value value</t>
@@ -303,80 +272,7 @@
     <t xml:space="preserve">write registers: MODBUS function 16</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">writeBCD(</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">deviceID,register,value</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) or writeBCD([</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">deviceID,register,value</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">],..,[</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">deviceID,register,value</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">])</t>
-    </r>
+    <t xml:space="preserve">writeBCD(deviceID,register,value) or writeBCD([deviceID,register,value],..,[deviceID,register,value])</t>
   </si>
   <si>
     <t xml:space="preserve">write 16bit BCD encoded value to register of device with deviceID </t>
@@ -837,7 +733,13 @@
     <t xml:space="preserve">pidLookahead(&lt;int&gt;)</t>
   </si>
   <si>
-    <t xml:space="preserve">sets the PID lookahead</t>
+    <t xml:space="preserve">sets the PID lookahead in seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replayLookahead(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the Ramping Event Replay lookahead in seconds</t>
   </si>
   <si>
     <t xml:space="preserve">popup(&lt;msg&gt;[,&lt;int&gt;])</t>
@@ -1222,7 +1124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1252,13 +1154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1572,10 +1467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,7 +2366,6 @@
       <c r="C109" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
@@ -2480,6 +2374,7 @@
       <c r="C110" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="D110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
@@ -2602,17 +2497,17 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="1" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
         <v>266</v>
       </c>
@@ -2670,15 +2565,15 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>282</v>
@@ -2694,26 +2589,26 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="B139" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>289</v>
@@ -2721,45 +2616,53 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="B141" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C141" s="1" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>118</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>295</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="300">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shellyrelay(n,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switches Shelly plug number &lt;n&gt; ON if b is true or 1, and OFF otherwise</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -1349,7 +1355,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B71:C71 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,10 +1473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,35 +2056,35 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>164</v>
@@ -2125,42 +2131,42 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2185,18 +2191,18 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +2380,6 @@
       <c r="C110" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
@@ -2383,6 +2388,7 @@
       <c r="C111" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
@@ -2505,17 +2511,17 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
         <v>268</v>
       </c>
@@ -2573,15 +2579,15 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>284</v>
@@ -2597,26 +2603,26 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="B140" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>291</v>
@@ -2624,45 +2630,53 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="B142" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C142" s="1" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>297</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="302">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidWeights(&lt;beta&gt;,&lt;gamma&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the beta and gamma parameters of the PID</t>
   </si>
   <si>
     <t xml:space="preserve">adjustSV(&lt;float&gt;)</t>
@@ -1355,7 +1361,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B71:C71 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B95:C95 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,10 +1479,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71:C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2388,7 +2394,6 @@
       <c r="C111" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
@@ -2397,6 +2402,7 @@
       <c r="C112" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="D112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
@@ -2519,17 +2525,17 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C128" s="1" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
         <v>270</v>
       </c>
@@ -2587,15 +2593,15 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>286</v>
@@ -2611,26 +2617,26 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="B141" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>293</v>
@@ -2638,45 +2644,53 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="B143" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C143" s="1" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>299</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -805,7 +805,7 @@
     <t xml:space="preserve">playbackmode(&lt;int&gt;)</t>
   </si>
   <si>
-    <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+    <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET; 4: BT/time; 5: ET/time</t>
   </si>
   <si>
     <t xml:space="preserve">playbackdropmode(&lt;int&gt;)</t>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B95:C95 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C111 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1481,8 +1481,8 @@
   </sheetPr>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95:C95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C95" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -889,37 +889,7 @@
     <t xml:space="preserve">slider(n,&lt;bool&gt;)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">show/hide slider per event type </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> from {1,2,3,4}</t>
-    </r>
+    <t xml:space="preserve">show/hide slider per event type n from {1,2,3,4}; n=5 toggles the PID SV slider visibility</t>
   </si>
   <si>
     <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
@@ -1361,7 +1331,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C111 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1481,8 +1451,8 @@
   </sheetPr>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C95" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
